--- a/examples/工具设置/字段匹配 - 填写说明.xlsx
+++ b/examples/工具设置/字段匹配 - 填写说明.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\软件\聚水潭导单回单工具\工具设置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B70FF8E-A54F-443F-9FF5-09AF6A595EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4A986B-E393-4A4D-BCD3-75759F62204C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{29AD811B-1053-458C-A6A8-6E55EB69828F}"/>
   </bookViews>
@@ -217,10 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>渠道名称（需与推单文件名保持一致，请注意注意大小写、空格等）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>必填，对应推单文件中的订单号标识</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -237,10 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>必填，如推单文件中不包含编码字段，将进行名称匹配，须在【商品编码对照】工作表中填写对应编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>必填，如不填写，将按照商品编码从渠道商品价格中匹配价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,6 +254,14 @@
   </si>
   <si>
     <t>必填，如不填写，将导入为当前时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填，如推单文件中不包含编码字段，将进行名称匹配，须在【商品编码对照】工作表中填写对应名称及编码；如推单表格中包含编码字段，但部分为空，在写入编码字段后也可以对空值进行名称匹配，具体操作跟前述相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道名称（需与推单文件名保持一致，请注意大小写、空格等）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -651,7 +651,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -679,7 +679,7 @@
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -696,7 +696,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -713,7 +713,7 @@
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -730,7 +730,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -747,7 +747,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -764,7 +764,7 @@
         <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -781,7 +781,7 @@
         <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -798,7 +798,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -815,7 +815,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -823,7 +823,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -831,7 +831,7 @@
         <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -848,7 +848,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -865,7 +865,7 @@
         <v>42</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -882,7 +882,7 @@
         <v>43</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -899,7 +899,7 @@
         <v>45</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
